--- a/2020-12-24-product-4a5d33c2-d671-f780-a9d0-884fb46b319b.xlsx
+++ b/2020-12-24-product-4a5d33c2-d671-f780-a9d0-884fb46b319b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\openserver\domains\Priemka24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\verstka\Priemka24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1098">
   <si>
     <t>URL Slug</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>pp3-40-43-15-20-kom-i-podobnye-do-1982-goda-ili-s-rombom</t>
   </si>
   <si>
-    <t>ПП3-40-43 1,5-20 КОМ и подобные (до 1982 года или с ромбом)</t>
-  </si>
-  <si>
     <t>Резисторы</t>
   </si>
   <si>
@@ -1080,9 +1077,6 @@
     <t>0.029</t>
   </si>
   <si>
-    <t>СП5-14 15 ОМ и подобные</t>
-  </si>
-  <si>
     <t>775</t>
   </si>
   <si>
@@ -1092,18 +1086,12 @@
     <t>0.017</t>
   </si>
   <si>
-    <t>СП5-1ВА и подобные</t>
-  </si>
-  <si>
     <t>774</t>
   </si>
   <si>
     <t>sp5-14-100-om-47-kom-i-podobnye</t>
   </si>
   <si>
-    <t>СП5-14 100 ОМ - 47 КОМ и подобные</t>
-  </si>
-  <si>
     <t>773</t>
   </si>
   <si>
@@ -1134,9 +1122,6 @@
     <t>ren-33-021-00-01-do-90-goda</t>
   </si>
   <si>
-    <t>РЭН-33 021-00.01 до 90 года</t>
-  </si>
-  <si>
     <t>767</t>
   </si>
   <si>
@@ -1146,36 +1131,24 @@
     <t>0.65</t>
   </si>
   <si>
-    <t>ДП-12А до 90 года паспорт 902, 903, 906</t>
-  </si>
-  <si>
     <t>766</t>
   </si>
   <si>
     <t>rpv2-7-rs4-521-960-i-podobnye-god-lyuboj-pasport-lyuboj</t>
   </si>
   <si>
-    <t>РПВ2/7 РС4.521.960 и подобные год любой, паспорт любой</t>
-  </si>
-  <si>
     <t>765</t>
   </si>
   <si>
     <t>rps-36b-rs4-520-256-do-79-12-goda-pasport-254-255-256-264</t>
   </si>
   <si>
-    <t>РПС-36Б РС4.520.256 до 79.12 года паспорт (254, 255, 256, 264)</t>
-  </si>
-  <si>
     <t>764</t>
   </si>
   <si>
     <t>rps-36b-os-rs4-520-253-do-91-goda-pasport-251-252-253</t>
   </si>
   <si>
-    <t>РПС-36Б ОС РС4.520.253 до 91 года паспорт (251, 252, 253)</t>
-  </si>
-  <si>
     <t>763</t>
   </si>
   <si>
@@ -1185,18 +1158,12 @@
     <t>0.12</t>
   </si>
   <si>
-    <t>РПС-34Б ОС РС4.520.233 паспорт(231, 232, 233)</t>
-  </si>
-  <si>
     <t>762</t>
   </si>
   <si>
     <t>rps-32a-rs4-520-201-pasport-201-208-do-92-goda</t>
   </si>
   <si>
-    <t>РПС-32А РС4.520.201 паспорт (201-208) до 92 года</t>
-  </si>
-  <si>
     <t>761</t>
   </si>
   <si>
@@ -1206,18 +1173,12 @@
     <t>0.14</t>
   </si>
   <si>
-    <t>РПС-32 РС4.520.209 паспорт (209-216) до 91 года</t>
-  </si>
-  <si>
     <t>760</t>
   </si>
   <si>
     <t>rps-20b-pasport-756-760-761-762-763</t>
   </si>
   <si>
-    <t>РПС-20Б паспорт (756, 760, 761, 762, 763)</t>
-  </si>
-  <si>
     <t>759</t>
   </si>
   <si>
@@ -1227,45 +1188,30 @@
     <t>0.15</t>
   </si>
   <si>
-    <t>РПС-11/3 до 68 года</t>
-  </si>
-  <si>
     <t>758</t>
   </si>
   <si>
     <t>res-48-rs4-590-218-pasport-213-218</t>
   </si>
   <si>
-    <t>РЭС-48 РС4.590.218 паспорт (213-218)</t>
-  </si>
-  <si>
     <t>757</t>
   </si>
   <si>
     <t>res-48-rs4-590-207-pasport-201-207</t>
   </si>
   <si>
-    <t>РЭС-48 РС4.590.207 паспорт (201-207)</t>
-  </si>
-  <si>
     <t>756</t>
   </si>
   <si>
     <t>res-32b-pasport-0607</t>
   </si>
   <si>
-    <t>РЭС-32Б паспорт (06,07)</t>
-  </si>
-  <si>
     <t>755</t>
   </si>
   <si>
     <t>res-32-rf4-500-343p1-r-pasport-354-355</t>
   </si>
   <si>
-    <t>РЭС-32 РФ4.500.343П1 Р паспорт (354.355)</t>
-  </si>
-  <si>
     <t>754</t>
   </si>
   <si>
@@ -1275,9 +1221,6 @@
     <t>0.175</t>
   </si>
   <si>
-    <t>РЭС-22 РФ4.523.023-09 паспорт (09,10,11,12,13)</t>
-  </si>
-  <si>
     <t>753</t>
   </si>
   <si>
@@ -1287,18 +1230,12 @@
     <t>0.35</t>
   </si>
   <si>
-    <t>РЭС-22 РФ4.500.225П2 паспорт (200-300)</t>
-  </si>
-  <si>
     <t>752</t>
   </si>
   <si>
     <t>res-15-zhya2-553-009-do-73-goda</t>
   </si>
   <si>
-    <t>РЭС-15 ЖЯ2.553.009 до 73 года</t>
-  </si>
-  <si>
     <t>751</t>
   </si>
   <si>
@@ -1308,9 +1245,6 @@
     <t>0.05</t>
   </si>
   <si>
-    <t>РЭС-10 РС4.524.301П2 (301, 302, 303, 304, 319, 050-01)</t>
-  </si>
-  <si>
     <t>750</t>
   </si>
   <si>
@@ -1320,18 +1254,12 @@
     <t>0.067</t>
   </si>
   <si>
-    <t>РЭС-10 РС4.524.311 (312, 313, 314, 315, 320, 031-09, 10, 11, 12, 050-02) целая /311, 316, 031-08, 13 -50% от цены</t>
-  </si>
-  <si>
     <t>749</t>
   </si>
   <si>
     <t>res-10-rs4-524-300p2-300-305-308-031-01-02-03-04-05-06-07-do-1984-goda</t>
   </si>
   <si>
-    <t>РЭС-10 РС4.524.300П2 (300, 305, 308, 031-01, 02, 03, 04, 05, 06, 07) до 1984 года</t>
-  </si>
-  <si>
     <t>748</t>
   </si>
   <si>
@@ -1341,9 +1269,6 @@
     <t>0.133</t>
   </si>
   <si>
-    <t>РЭС9 РС4.524.213 паспорт (213, 215-218, 09, 11-14) до 1990 года</t>
-  </si>
-  <si>
     <t>747</t>
   </si>
   <si>
@@ -1353,9 +1278,6 @@
     <t>0.125</t>
   </si>
   <si>
-    <t>РЭС-9 РС4.524.202П2 Р паспорт (201, 202, 207, 208) до 82 года =(01,02,06)до 85.07</t>
-  </si>
-  <si>
     <t>746</t>
   </si>
   <si>
@@ -1365,9 +1287,6 @@
     <t>0.69</t>
   </si>
   <si>
-    <t>РЭС-8 РС4.590.050 до 1972 года</t>
-  </si>
-  <si>
     <t>720</t>
   </si>
   <si>
@@ -1437,9 +1356,6 @@
     <t>kt926-a-i-podobnye-tolstaya-kajma</t>
   </si>
   <si>
-    <t>КТ926 А и подобные толстая кайма</t>
-  </si>
-  <si>
     <t>713</t>
   </si>
   <si>
@@ -1464,18 +1380,12 @@
     <t>kt907a-i-podobnye-zheltyj-bolt</t>
   </si>
   <si>
-    <t>КТ907А и подобные желтый болт</t>
-  </si>
-  <si>
     <t>710</t>
   </si>
   <si>
     <t>kt930-i-podobnye</t>
   </si>
   <si>
-    <t>КТ930 и подобные</t>
-  </si>
-  <si>
     <t>709</t>
   </si>
   <si>
@@ -1485,9 +1395,6 @@
     <t>0.045</t>
   </si>
   <si>
-    <t>КТ920А-Г и подобные большой вертолет</t>
-  </si>
-  <si>
     <t>708</t>
   </si>
   <si>
@@ -1506,36 +1413,24 @@
     <t>0.013</t>
   </si>
   <si>
-    <t>КТ630А и подобные</t>
-  </si>
-  <si>
     <t>706</t>
   </si>
   <si>
     <t>kt610a-i-podobnye-malyj-vertolet</t>
   </si>
   <si>
-    <t>КТ610А и подобные малый вертолет</t>
-  </si>
-  <si>
     <t>705</t>
   </si>
   <si>
     <t>kt604-i-podobnye-zheltye</t>
   </si>
   <si>
-    <t>КТ604 и подобные желтые</t>
-  </si>
-  <si>
     <t>704</t>
   </si>
   <si>
     <t>kt602-i-podobnye-belye</t>
   </si>
   <si>
-    <t>КТ602 и подобные белые</t>
-  </si>
-  <si>
     <t>703</t>
   </si>
   <si>
@@ -1551,18 +1446,12 @@
     <t>p308v-i-podobnye-belye-snaruzhi-zheltye-vnutri</t>
   </si>
   <si>
-    <t>П308В и подобные белые снаружи, желтые внутри</t>
-  </si>
-  <si>
     <t>701</t>
   </si>
   <si>
     <t>kt312-i-podobnye-zheltye</t>
   </si>
   <si>
-    <t>КТ312 и подобные желтые</t>
-  </si>
-  <si>
     <t>700</t>
   </si>
   <si>
@@ -1572,9 +1461,6 @@
     <t>0.005</t>
   </si>
   <si>
-    <t>КТ301Г-Ж и подобные желтые внутри</t>
-  </si>
-  <si>
     <t>699</t>
   </si>
   <si>
@@ -1590,18 +1476,12 @@
     <t>2t203b-i-podobnye-belye</t>
   </si>
   <si>
-    <t>2Т203Б и подобные белые</t>
-  </si>
-  <si>
     <t>692</t>
   </si>
   <si>
     <t>dp-2</t>
   </si>
   <si>
-    <t>ДП-2</t>
-  </si>
-  <si>
     <t>Противогазы</t>
   </si>
   <si>
@@ -2859,27 +2739,18 @@
     <t>%d1%81%d0%bf5-20%d0%b2-47-%d0%ba%d0%be%d0%bc-%d0%b8-%d0%bf%d0%be%d0%b4%d0%be%d0%b1%d0%bd%d1%8b%d0%b5</t>
   </si>
   <si>
-    <t>СП5-20В 4,7 КОМ и подобные</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
     <t>%d1%81%d0%bf5-35%d0%b0-%d0%b8-%d0%bf%d0%be%d0%b4%d0%be%d0%b1%d0%bd%d1%8b%d0%b5</t>
   </si>
   <si>
-    <t>СП5-35А и подобные</t>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
     <t>8%d1%8d12</t>
   </si>
   <si>
-    <t>8Э12</t>
-  </si>
-  <si>
     <t>104</t>
   </si>
   <si>
@@ -2895,9 +2766,6 @@
     <t>%d1%82%d1%80%d0%bc-%d0%bf5-79-%d1%82%d1%80%d0%bc-%d1%80%d0%b4%d0%be-%d0%b3%d0%be%d0%b4-%d0%bb%d1%8e%d0%b1%d0%be%d0%b9-028-525-003</t>
   </si>
   <si>
-    <t>ТРМ-П5-79, ТРМ РДО год любой 028, 525, 003</t>
-  </si>
-  <si>
     <t>%d1%81%d0%b5%d1%80%d0%b5%d0%b1%d1%80%d0%be-25-%d1%81-%d0%bc%d0%ba%d1%81</t>
   </si>
   <si>
@@ -2910,40 +2778,25 @@
     <t>1%d1%82-311-%d0%b8-%d0%bf%d0%be%d0%b4%d0%be%d0%b1%d0%bd%d1%8b%d0%b5</t>
   </si>
   <si>
-    <t>1т-311 и подобные</t>
-  </si>
-  <si>
     <t>%d1%84%d0%b3-120</t>
   </si>
   <si>
-    <t>фг-120</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
     <t>%d0%b4%d0%be%d0%bd-4</t>
   </si>
   <si>
-    <t>Дон-4</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
     <t>%d0%b4%d0%be%d0%bd-2</t>
   </si>
   <si>
-    <t>Дон-2</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
     <t>%d0%b4%d0%bf-4</t>
-  </si>
-  <si>
-    <t>ДП-4</t>
   </si>
   <si>
     <t>28</t>
@@ -3317,6 +3170,153 @@
   </si>
   <si>
     <t>Лигатура Tesla; Eltra и т.д. (Импортные разъемы желтого цвета )</t>
+  </si>
+  <si>
+    <t>ПП3-40, ПП3-43 (1,5-20 кОм| до 1982 года или с ромбом)</t>
+  </si>
+  <si>
+    <t>СП5-1В (СП5-1ВА/ВБ |алюмин. пластина до 1991г.)</t>
+  </si>
+  <si>
+    <t>СП5-14 (и подобные |15 Ом|)</t>
+  </si>
+  <si>
+    <t>СП5-14 (СП5-14/ -15/ -22/ -24 |100 ОМ - 47 кОм| до 1991г)</t>
+  </si>
+  <si>
+    <t>СП5-20В (и подобные |4,7 кОм| до 1990г)</t>
+  </si>
+  <si>
+    <t>СП5-35 (СП5-35А/Б и подобные до 1991г)</t>
+  </si>
+  <si>
+    <t>РЭС-8 (РС 4.590.050 | до 1972 года)</t>
+  </si>
+  <si>
+    <t>РЭС-9 (РС4.524.202|паспорт оканчивается на 201;202;207;208 | до 82г. или |на 01.02.06 | до 85г)</t>
+  </si>
+  <si>
+    <t>РЭС9 (РС4.524.213 |паспорт оканчивается на 213; 215-218 \ раздельный 09; 11-14| до 1990 года)</t>
+  </si>
+  <si>
+    <t>РЭС-10 (РС4.524.300|паспорт оканчивается на 300; 305; 308  или раздельный 031- 01..07| до 1984 г)</t>
+  </si>
+  <si>
+    <t>РЭС-10 (РС4.524.311 |паспорт оканчивается на 312-315; 320 или раздельный; 031-09...12 и 050-02| паспорта 311;316 и раздельный 031-08; 13 -50%)</t>
+  </si>
+  <si>
+    <t>РЭС-10 (РС4.524.301 |паспорт оканчивается на 301-304; 319 и раздельный 050-01)</t>
+  </si>
+  <si>
+    <t>РЭС-15 (ЖЯ2.553.009 до 73 года)</t>
+  </si>
+  <si>
+    <t>РЭС-22 (РФ4.500.225|паспорт оканчивается на 200-300)</t>
+  </si>
+  <si>
+    <t>РЭС-22 (РФ4.523.023-09|паспорт оканчивается на 09;10;11;12;13)</t>
+  </si>
+  <si>
+    <t>РЭС-32 (РФ4.500.343 паспорт 354.355)</t>
+  </si>
+  <si>
+    <t>РЭС-32Б (паспорт оканчивается на 06;07)</t>
+  </si>
+  <si>
+    <t>РЭС-48 (РС4.590.207 |паспорт оканчивается на 201-207)</t>
+  </si>
+  <si>
+    <t>РЭС-48 (РС4.590.218 |паспорт оканчивается на 213-218)</t>
+  </si>
+  <si>
+    <t>РПС-11/3 (до 68 года)</t>
+  </si>
+  <si>
+    <t>РПС-20Б (паспорт оканчивается на 756; 760; 761; 762; 763)</t>
+  </si>
+  <si>
+    <t>РПС-32 (РС4.520.209 |паспорт оканчивается на 209-216|до 91 года)</t>
+  </si>
+  <si>
+    <t>РПС-32А (РС4.520.201|паспорт оканчивается на 201-208| до 92 года)</t>
+  </si>
+  <si>
+    <t>РПС34Б-ОС (РС4.520.233 |паспорт оканчивается на 231; 232; 233)</t>
+  </si>
+  <si>
+    <t>РПС36Б-ОС (РС4.520.253 |паспорт оканчивается на 251; 252; 253 до 91 года)</t>
+  </si>
+  <si>
+    <t>РПС-36Б (РС4.520.256 |паспорт оканчивается на 254; 255; 256; 264 до 79.12 года)</t>
+  </si>
+  <si>
+    <t>РПВ2/7 (РС4.521.960 и подобные год любой; паспорт любой)</t>
+  </si>
+  <si>
+    <t>ДП-12А (паспорт оканчивается на 902; 903; 906 до 90 года)</t>
+  </si>
+  <si>
+    <t>РЭН33 (паспорт оканчивается на 021-00.01 до 90 года)</t>
+  </si>
+  <si>
+    <t>8Э12 (8Э11 | 40А 27В)</t>
+  </si>
+  <si>
+    <t>ТРМ-РДО (ТРМ-П-579 год любой | паспорта 028; 525; 003)</t>
+  </si>
+  <si>
+    <t>ГТ311 (1Т311 и подобные| короткие желтые ноги)</t>
+  </si>
+  <si>
+    <t>КТ203 (КП201; 2Т\КТ203 и подобные белые)</t>
+  </si>
+  <si>
+    <t>КТ301 (КТ306; КТ312; КТ316 и подобные| белые снаружи и желтые внутри)</t>
+  </si>
+  <si>
+    <t>КТ301 (КТ306; КТ312; КТ316 и подобные | желтые ноги)</t>
+  </si>
+  <si>
+    <t>П308В; КТ604 (и подобные| белые снаружи, желтые внутри)</t>
+  </si>
+  <si>
+    <t>КТ926 (2Т704; 2Т912 и подобные до 1991г. |толстая кайма)</t>
+  </si>
+  <si>
+    <t>КТ930 (2Т\КТ930; КТ958; КТ960; КТ970 и подобные)</t>
+  </si>
+  <si>
+    <t>КТ907 (КТ606; КТ902; КТ904 и подобные| желтый болт)</t>
+  </si>
+  <si>
+    <t>КТ920, КТ922 (2Т920; 2Т922 и подобные|большой вертолет)</t>
+  </si>
+  <si>
+    <t>КТ630 (КТ630А; КТ830 и подобные|длинные ноги)</t>
+  </si>
+  <si>
+    <t>КТ610 (КТ613; КТ913; 2П907 подобные| малый вертолет)</t>
+  </si>
+  <si>
+    <t>2Т602, 2Т604 (2Т\КТ602; 2Т\КТ604 подобные | белые ноги)</t>
+  </si>
+  <si>
+    <t>КТ602; КТ604 (и подобные| желтые ноги)</t>
+  </si>
+  <si>
+    <t>ДП-2 (регенеративный патрон (фильтр))</t>
+  </si>
+  <si>
+    <t>ФГ-120 (регенеративный патрон (фильтр))</t>
+  </si>
+  <si>
+    <t>Дон-4 (регенеративный патрон (фильтр))</t>
+  </si>
+  <si>
+    <t>Дон-2 (регенеративный патрон (фильтр))</t>
+  </si>
+  <si>
+    <t>ДП-4 (регенеративный патрон (фильтр))</t>
   </si>
 </sst>
 </file>
@@ -3372,7 +3372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3383,6 +3383,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3726,13 +3727,13 @@
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C306" sqref="C306"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="45.25" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="12" max="12" width="35.75" customWidth="1"/>
@@ -3740,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>982</v>
+        <v>933</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3764,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>983</v>
+        <v>934</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -4115,7 +4116,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>984</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -4156,7 +4157,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>1032</v>
+        <v>983</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -4189,7 +4190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1097</v>
+        <v>1048</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4230,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1079</v>
+        <v>1030</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4271,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1080</v>
+        <v>1031</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -4312,7 +4313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1089</v>
+        <v>1040</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -4353,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1088</v>
+        <v>1039</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -4394,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1087</v>
+        <v>1038</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -4435,7 +4436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1091</v>
+        <v>1042</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -4476,7 +4477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1082</v>
+        <v>1033</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -4517,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1081</v>
+        <v>1032</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -4558,7 +4559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -4599,7 +4600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1078</v>
+        <v>1029</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -4640,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1077</v>
+        <v>1028</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -4722,7 +4723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1076</v>
+        <v>1027</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -4763,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1075</v>
+        <v>1026</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -4804,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1074</v>
+        <v>1025</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -4845,7 +4846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1073</v>
+        <v>1024</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -4886,7 +4887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1072</v>
+        <v>1023</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -5427,7 +5428,7 @@
         <v>160</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1071</v>
+        <v>1022</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
@@ -5468,7 +5469,7 @@
         <v>162</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1070</v>
+        <v>1021</v>
       </c>
       <c r="D43" t="s">
         <v>163</v>
@@ -5509,7 +5510,7 @@
         <v>165</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1069</v>
+        <v>1020</v>
       </c>
       <c r="D44" t="s">
         <v>163</v>
@@ -5550,7 +5551,7 @@
         <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>1068</v>
+        <v>1019</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -5591,7 +5592,7 @@
         <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>1062</v>
+        <v>1013</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -5632,7 +5633,7 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>1061</v>
+        <v>1012</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -5673,7 +5674,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>1060</v>
+        <v>1011</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -5714,7 +5715,7 @@
         <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>1063</v>
+        <v>1014</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -5755,7 +5756,7 @@
         <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>1064</v>
+        <v>1015</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -5796,7 +5797,7 @@
         <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -5837,7 +5838,7 @@
         <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -5878,7 +5879,7 @@
         <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>1057</v>
+        <v>1008</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -5919,7 +5920,7 @@
         <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -5960,7 +5961,7 @@
         <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -6124,7 +6125,7 @@
         <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -6165,7 +6166,7 @@
         <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>1053</v>
+        <v>1004</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -6206,7 +6207,7 @@
         <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>1052</v>
+        <v>1003</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -6247,7 +6248,7 @@
         <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>1051</v>
+        <v>1002</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -6288,7 +6289,7 @@
         <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -6370,7 +6371,7 @@
         <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>1049</v>
+        <v>1000</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -6411,7 +6412,7 @@
         <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>1048</v>
+        <v>999</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -6493,7 +6494,7 @@
         <v>237</v>
       </c>
       <c r="C68" t="s">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -6534,7 +6535,7 @@
         <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>1046</v>
+        <v>997</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -6616,7 +6617,7 @@
         <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>1045</v>
+        <v>996</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -6657,7 +6658,7 @@
         <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>1044</v>
+        <v>995</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -6698,7 +6699,7 @@
         <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>1043</v>
+        <v>994</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -6739,7 +6740,7 @@
         <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>1042</v>
+        <v>993</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -6780,7 +6781,7 @@
         <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>1041</v>
+        <v>992</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -6821,7 +6822,7 @@
         <v>258</v>
       </c>
       <c r="C76" t="s">
-        <v>1040</v>
+        <v>991</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -6862,7 +6863,7 @@
         <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>1039</v>
+        <v>990</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -6903,7 +6904,7 @@
         <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>1038</v>
+        <v>989</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -6944,7 +6945,7 @@
         <v>264</v>
       </c>
       <c r="C79" t="s">
-        <v>1037</v>
+        <v>988</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -6985,7 +6986,7 @@
         <v>267</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1036</v>
+        <v>987</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -7026,7 +7027,7 @@
         <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>1035</v>
+        <v>986</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -7067,7 +7068,7 @@
         <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>1034</v>
+        <v>985</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -7108,7 +7109,7 @@
         <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>1029</v>
+        <v>980</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -7149,7 +7150,7 @@
         <v>277</v>
       </c>
       <c r="C84" t="s">
-        <v>1028</v>
+        <v>979</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -7190,7 +7191,7 @@
         <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>1027</v>
+        <v>978</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -7231,7 +7232,7 @@
         <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -7272,7 +7273,7 @@
         <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>1025</v>
+        <v>976</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -7313,7 +7314,7 @@
         <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>1024</v>
+        <v>975</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -7354,7 +7355,7 @@
         <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>1023</v>
+        <v>974</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -7395,7 +7396,7 @@
         <v>293</v>
       </c>
       <c r="C90" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -7436,7 +7437,7 @@
         <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -7477,7 +7478,7 @@
         <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -7518,7 +7519,7 @@
         <v>299</v>
       </c>
       <c r="C93" t="s">
-        <v>1019</v>
+        <v>970</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -7559,7 +7560,7 @@
         <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>1018</v>
+        <v>969</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -7600,7 +7601,7 @@
         <v>303</v>
       </c>
       <c r="C95" t="s">
-        <v>1017</v>
+        <v>968</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -7641,7 +7642,7 @@
         <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>1016</v>
+        <v>967</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -7682,7 +7683,7 @@
         <v>309</v>
       </c>
       <c r="C97" t="s">
-        <v>1014</v>
+        <v>965</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -7723,7 +7724,7 @@
         <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>1013</v>
+        <v>964</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -8050,8 +8051,8 @@
       <c r="B106" t="s">
         <v>343</v>
       </c>
-      <c r="C106" t="s">
-        <v>344</v>
+      <c r="C106" s="2" t="s">
+        <v>1049</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -8078,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="L106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M106" t="s">
         <v>10</v>
@@ -8086,13 +8087,13 @@
     </row>
     <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>345</v>
+      </c>
+      <c r="B107" t="s">
         <v>346</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>347</v>
-      </c>
-      <c r="C107" t="s">
-        <v>348</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -8115,11 +8116,11 @@
       <c r="J107" t="s">
         <v>15</v>
       </c>
-      <c r="K107" t="s">
-        <v>14</v>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M107" t="s">
         <v>10</v>
@@ -8127,23 +8128,23 @@
     </row>
     <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" t="s">
         <v>349</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
         <v>350</v>
       </c>
-      <c r="C108" t="s">
-        <v>352</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>351</v>
-      </c>
       <c r="G108" t="s">
         <v>10</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>14</v>
       </c>
       <c r="L108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M108" t="s">
         <v>10</v>
@@ -8168,23 +8169,23 @@
     </row>
     <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
         <v>353</v>
       </c>
-      <c r="B109" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" t="s">
-        <v>356</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>355</v>
-      </c>
       <c r="G109" t="s">
         <v>10</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M109" t="s">
         <v>10</v>
@@ -8209,13 +8210,13 @@
     </row>
     <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B110" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1052</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -8242,7 +8243,7 @@
         <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M110" t="s">
         <v>10</v>
@@ -8250,13 +8251,13 @@
     </row>
     <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -8265,7 +8266,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
@@ -8279,11 +8280,11 @@
       <c r="J111" t="s">
         <v>15</v>
       </c>
-      <c r="K111" t="s">
-        <v>14</v>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M111" t="s">
         <v>10</v>
@@ -8291,13 +8292,13 @@
     </row>
     <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s">
-        <v>365</v>
-      </c>
-      <c r="C112" t="s">
-        <v>366</v>
+        <v>361</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -8324,7 +8325,7 @@
         <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M112" t="s">
         <v>10</v>
@@ -8332,13 +8333,13 @@
     </row>
     <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B113" t="s">
-        <v>369</v>
-      </c>
-      <c r="C113" t="s">
-        <v>370</v>
+        <v>365</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1077</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -8365,7 +8366,7 @@
         <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M113" t="s">
         <v>10</v>
@@ -8373,19 +8374,19 @@
     </row>
     <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B114" t="s">
-        <v>372</v>
-      </c>
-      <c r="C114" t="s">
-        <v>374</v>
+        <v>367</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1076</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -8406,7 +8407,7 @@
         <v>14</v>
       </c>
       <c r="L114" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M114" t="s">
         <v>10</v>
@@ -8414,13 +8415,13 @@
     </row>
     <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B115" t="s">
-        <v>376</v>
-      </c>
-      <c r="C115" t="s">
-        <v>377</v>
+        <v>370</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -8447,7 +8448,7 @@
         <v>14</v>
       </c>
       <c r="L115" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M115" t="s">
         <v>10</v>
@@ -8455,13 +8456,13 @@
     </row>
     <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
-      </c>
-      <c r="C116" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -8488,7 +8489,7 @@
         <v>14</v>
       </c>
       <c r="L116" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M116" t="s">
         <v>10</v>
@@ -8496,13 +8497,13 @@
     </row>
     <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
-      </c>
-      <c r="C117" t="s">
-        <v>383</v>
+        <v>374</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -8529,7 +8530,7 @@
         <v>14</v>
       </c>
       <c r="L117" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M117" t="s">
         <v>10</v>
@@ -8537,19 +8538,19 @@
     </row>
     <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B118" t="s">
-        <v>385</v>
-      </c>
-      <c r="C118" t="s">
-        <v>387</v>
+        <v>376</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -8570,7 +8571,7 @@
         <v>14</v>
       </c>
       <c r="L118" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M118" t="s">
         <v>10</v>
@@ -8578,13 +8579,13 @@
     </row>
     <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
-      </c>
-      <c r="C119" t="s">
-        <v>390</v>
+        <v>379</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1071</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -8596,7 +8597,7 @@
         <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
@@ -8611,7 +8612,7 @@
         <v>14</v>
       </c>
       <c r="L119" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M119" t="s">
         <v>10</v>
@@ -8619,19 +8620,19 @@
     </row>
     <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
-      </c>
-      <c r="C120" t="s">
-        <v>394</v>
+        <v>381</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -8652,7 +8653,7 @@
         <v>14</v>
       </c>
       <c r="L120" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M120" t="s">
         <v>10</v>
@@ -8660,13 +8661,13 @@
     </row>
     <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
-      </c>
-      <c r="C121" t="s">
-        <v>397</v>
+        <v>384</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -8693,7 +8694,7 @@
         <v>14</v>
       </c>
       <c r="L121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M121" t="s">
         <v>10</v>
@@ -8701,13 +8702,13 @@
     </row>
     <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" t="s">
-        <v>401</v>
+        <v>386</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1068</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
@@ -8719,7 +8720,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -8734,7 +8735,7 @@
         <v>14</v>
       </c>
       <c r="L122" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M122" t="s">
         <v>10</v>
@@ -8742,13 +8743,13 @@
     </row>
     <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
-      </c>
-      <c r="C123" t="s">
-        <v>404</v>
+        <v>389</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1067</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -8775,7 +8776,7 @@
         <v>14</v>
       </c>
       <c r="L123" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M123" t="s">
         <v>10</v>
@@ -8783,13 +8784,13 @@
     </row>
     <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
-      </c>
-      <c r="C124" t="s">
-        <v>407</v>
+        <v>391</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1066</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -8816,7 +8817,7 @@
         <v>14</v>
       </c>
       <c r="L124" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M124" t="s">
         <v>10</v>
@@ -8824,19 +8825,19 @@
     </row>
     <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
-      </c>
-      <c r="C125" t="s">
-        <v>410</v>
+        <v>393</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1065</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -8857,7 +8858,7 @@
         <v>14</v>
       </c>
       <c r="L125" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M125" t="s">
         <v>10</v>
@@ -8865,13 +8866,13 @@
     </row>
     <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
-      </c>
-      <c r="C126" t="s">
-        <v>413</v>
+        <v>395</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1064</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -8898,7 +8899,7 @@
         <v>14</v>
       </c>
       <c r="L126" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M126" t="s">
         <v>10</v>
@@ -8906,19 +8907,19 @@
     </row>
     <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
-      </c>
-      <c r="C127" t="s">
-        <v>417</v>
+        <v>397</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1063</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -8939,7 +8940,7 @@
         <v>14</v>
       </c>
       <c r="L127" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M127" t="s">
         <v>10</v>
@@ -8947,19 +8948,19 @@
     </row>
     <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
-      </c>
-      <c r="C128" t="s">
-        <v>421</v>
+        <v>400</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1062</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -8980,7 +8981,7 @@
         <v>14</v>
       </c>
       <c r="L128" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M128" t="s">
         <v>10</v>
@@ -8988,13 +8989,13 @@
     </row>
     <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B129" t="s">
-        <v>423</v>
-      </c>
-      <c r="C129" t="s">
-        <v>424</v>
+        <v>403</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1061</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -9021,7 +9022,7 @@
         <v>14</v>
       </c>
       <c r="L129" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M129" t="s">
         <v>10</v>
@@ -9029,13 +9030,13 @@
     </row>
     <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B130" t="s">
-        <v>426</v>
-      </c>
-      <c r="C130" t="s">
-        <v>428</v>
+        <v>405</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -9047,7 +9048,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -9062,7 +9063,7 @@
         <v>14</v>
       </c>
       <c r="L130" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M130" t="s">
         <v>10</v>
@@ -9070,19 +9071,19 @@
     </row>
     <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s">
-        <v>430</v>
-      </c>
-      <c r="C131" t="s">
-        <v>432</v>
+        <v>408</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1059</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -9103,7 +9104,7 @@
         <v>14</v>
       </c>
       <c r="L131" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M131" t="s">
         <v>10</v>
@@ -9111,13 +9112,13 @@
     </row>
     <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B132" t="s">
-        <v>434</v>
-      </c>
-      <c r="C132" t="s">
-        <v>435</v>
+        <v>411</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1058</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -9144,7 +9145,7 @@
         <v>14</v>
       </c>
       <c r="L132" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M132" t="s">
         <v>10</v>
@@ -9152,19 +9153,19 @@
     </row>
     <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B133" t="s">
-        <v>437</v>
-      </c>
-      <c r="C133" t="s">
-        <v>439</v>
+        <v>413</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1057</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -9185,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="L133" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M133" t="s">
         <v>10</v>
@@ -9193,13 +9194,13 @@
     </row>
     <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="B134" t="s">
-        <v>441</v>
-      </c>
-      <c r="C134" t="s">
-        <v>443</v>
+        <v>416</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>1056</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -9211,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="H134" t="s">
         <v>10</v>
@@ -9226,7 +9227,7 @@
         <v>14</v>
       </c>
       <c r="L134" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M134" t="s">
         <v>10</v>
@@ -9234,13 +9235,13 @@
     </row>
     <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B135" t="s">
-        <v>445</v>
-      </c>
-      <c r="C135" t="s">
-        <v>447</v>
+        <v>419</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>1055</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -9252,7 +9253,7 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="H135" t="s">
         <v>10</v>
@@ -9267,7 +9268,7 @@
         <v>14</v>
       </c>
       <c r="L135" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M135" t="s">
         <v>10</v>
@@ -9275,13 +9276,13 @@
     </row>
     <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B136" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="C136" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -9308,7 +9309,7 @@
         <v>14</v>
       </c>
       <c r="L136" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M136" t="s">
         <v>10</v>
@@ -9316,13 +9317,13 @@
     </row>
     <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="B137" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="C137" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -9349,7 +9350,7 @@
         <v>14</v>
       </c>
       <c r="L137" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M137" t="s">
         <v>10</v>
@@ -9357,13 +9358,13 @@
     </row>
     <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="B138" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C138" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -9390,7 +9391,7 @@
         <v>14</v>
       </c>
       <c r="L138" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M138" t="s">
         <v>10</v>
@@ -9398,13 +9399,13 @@
     </row>
     <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="B139" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="C139" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -9419,7 +9420,7 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="I139" t="s">
         <v>49</v>
@@ -9431,7 +9432,7 @@
         <v>14</v>
       </c>
       <c r="L139" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M139" t="s">
         <v>10</v>
@@ -9439,13 +9440,13 @@
     </row>
     <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B140" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="C140" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -9460,7 +9461,7 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="I140" t="s">
         <v>49</v>
@@ -9472,7 +9473,7 @@
         <v>14</v>
       </c>
       <c r="L140" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M140" t="s">
         <v>10</v>
@@ -9480,13 +9481,13 @@
     </row>
     <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B141" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="C141" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -9509,11 +9510,11 @@
       <c r="J141" t="s">
         <v>15</v>
       </c>
-      <c r="K141" t="s">
-        <v>14</v>
+      <c r="K141">
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M141" t="s">
         <v>10</v>
@@ -9521,13 +9522,13 @@
     </row>
     <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B142" t="s">
-        <v>470</v>
-      </c>
-      <c r="C142" t="s">
-        <v>471</v>
+        <v>443</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>1085</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -9554,7 +9555,7 @@
         <v>14</v>
       </c>
       <c r="L142" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M142" t="s">
         <v>10</v>
@@ -9562,13 +9563,13 @@
     </row>
     <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B143" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="C143" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -9591,11 +9592,11 @@
       <c r="J143" t="s">
         <v>15</v>
       </c>
-      <c r="K143" t="s">
-        <v>14</v>
+      <c r="K143">
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M143" t="s">
         <v>10</v>
@@ -9603,19 +9604,19 @@
     </row>
     <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B144" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="C144" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -9632,11 +9633,11 @@
       <c r="J144" t="s">
         <v>15</v>
       </c>
-      <c r="K144" t="s">
-        <v>14</v>
+      <c r="K144">
+        <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M144" t="s">
         <v>10</v>
@@ -9644,13 +9645,13 @@
     </row>
     <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B145" t="s">
-        <v>479</v>
-      </c>
-      <c r="C145" t="s">
-        <v>480</v>
+        <v>451</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>1087</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -9677,7 +9678,7 @@
         <v>14</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M145" t="s">
         <v>10</v>
@@ -9685,13 +9686,13 @@
     </row>
     <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s">
-        <v>482</v>
-      </c>
-      <c r="C146" t="s">
-        <v>483</v>
+        <v>453</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>1086</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -9718,7 +9719,7 @@
         <v>14</v>
       </c>
       <c r="L146" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M146" t="s">
         <v>10</v>
@@ -9726,19 +9727,19 @@
     </row>
     <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B147" t="s">
-        <v>485</v>
-      </c>
-      <c r="C147" t="s">
-        <v>487</v>
+        <v>455</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1088</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -9759,7 +9760,7 @@
         <v>14</v>
       </c>
       <c r="L147" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M147" t="s">
         <v>10</v>
@@ -9767,13 +9768,13 @@
     </row>
     <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="B148" t="s">
-        <v>489</v>
-      </c>
-      <c r="C148" t="s">
-        <v>490</v>
+        <v>458</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -9800,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="L148" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M148" t="s">
         <v>10</v>
@@ -9808,19 +9809,19 @@
     </row>
     <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B149" t="s">
-        <v>492</v>
-      </c>
-      <c r="C149" t="s">
-        <v>494</v>
+        <v>461</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -9841,7 +9842,7 @@
         <v>14</v>
       </c>
       <c r="L149" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M149" t="s">
         <v>10</v>
@@ -9849,13 +9850,13 @@
     </row>
     <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B150" t="s">
-        <v>496</v>
-      </c>
-      <c r="C150" t="s">
-        <v>497</v>
+        <v>464</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1090</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -9882,7 +9883,7 @@
         <v>14</v>
       </c>
       <c r="L150" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M150" t="s">
         <v>10</v>
@@ -9890,13 +9891,13 @@
     </row>
     <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
-      </c>
-      <c r="C151" t="s">
-        <v>500</v>
+        <v>466</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1092</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -9923,7 +9924,7 @@
         <v>14</v>
       </c>
       <c r="L151" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M151" t="s">
         <v>10</v>
@@ -9931,19 +9932,19 @@
     </row>
     <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="B152" t="s">
-        <v>502</v>
-      </c>
-      <c r="C152" t="s">
-        <v>503</v>
+        <v>468</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -9964,7 +9965,7 @@
         <v>14</v>
       </c>
       <c r="L152" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M152" t="s">
         <v>10</v>
@@ -9972,13 +9973,13 @@
     </row>
     <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="B153" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="C153" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -10001,11 +10002,11 @@
       <c r="J153" t="s">
         <v>15</v>
       </c>
-      <c r="K153" t="s">
-        <v>14</v>
+      <c r="K153">
+        <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M153" t="s">
         <v>10</v>
@@ -10013,13 +10014,13 @@
     </row>
     <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="B154" t="s">
-        <v>508</v>
-      </c>
-      <c r="C154" t="s">
-        <v>509</v>
+        <v>473</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1084</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -10046,7 +10047,7 @@
         <v>14</v>
       </c>
       <c r="L154" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M154" t="s">
         <v>10</v>
@@ -10054,13 +10055,13 @@
     </row>
     <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="B155" t="s">
-        <v>511</v>
-      </c>
-      <c r="C155" t="s">
-        <v>512</v>
+        <v>475</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -10087,7 +10088,7 @@
         <v>14</v>
       </c>
       <c r="L155" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M155" t="s">
         <v>10</v>
@@ -10095,19 +10096,19 @@
     </row>
     <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="B156" t="s">
-        <v>514</v>
-      </c>
-      <c r="C156" t="s">
-        <v>516</v>
+        <v>477</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -10128,7 +10129,7 @@
         <v>14</v>
       </c>
       <c r="L156" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M156" t="s">
         <v>10</v>
@@ -10136,13 +10137,13 @@
     </row>
     <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="B157" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="C157" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -10165,11 +10166,11 @@
       <c r="J157" t="s">
         <v>15</v>
       </c>
-      <c r="K157" t="s">
-        <v>14</v>
+      <c r="K157">
+        <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M157" t="s">
         <v>10</v>
@@ -10177,13 +10178,13 @@
     </row>
     <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="B158" t="s">
-        <v>521</v>
-      </c>
-      <c r="C158" t="s">
-        <v>522</v>
+        <v>483</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -10210,21 +10211,21 @@
         <v>14</v>
       </c>
       <c r="L158" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="B159" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="C159" t="s">
-        <v>525</v>
+        <v>1093</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -10251,7 +10252,7 @@
         <v>14</v>
       </c>
       <c r="L159" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="M159" t="s">
         <v>10</v>
@@ -10259,16 +10260,16 @@
     </row>
     <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="B160" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="C160" t="s">
-        <v>1012</v>
+        <v>963</v>
       </c>
       <c r="D160" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -10292,7 +10293,7 @@
         <v>14</v>
       </c>
       <c r="L160" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M160" t="s">
         <v>10</v>
@@ -10300,16 +10301,16 @@
     </row>
     <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B161" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="C161" t="s">
-        <v>1011</v>
+        <v>962</v>
       </c>
       <c r="D161" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -10333,7 +10334,7 @@
         <v>14</v>
       </c>
       <c r="L161" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M161" t="s">
         <v>10</v>
@@ -10341,13 +10342,13 @@
     </row>
     <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="B162" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="C162" t="s">
-        <v>1010</v>
+        <v>961</v>
       </c>
       <c r="D162" t="s">
         <v>20</v>
@@ -10374,7 +10375,7 @@
         <v>14</v>
       </c>
       <c r="L162" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M162" t="s">
         <v>10</v>
@@ -10382,16 +10383,16 @@
     </row>
     <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="B163" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="C163" t="s">
-        <v>1006</v>
+        <v>957</v>
       </c>
       <c r="D163" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
@@ -10415,7 +10416,7 @@
         <v>14</v>
       </c>
       <c r="L163" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M163" t="s">
         <v>10</v>
@@ -10423,16 +10424,16 @@
     </row>
     <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="B164" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C164" t="s">
-        <v>1009</v>
+        <v>960</v>
       </c>
       <c r="D164" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
@@ -10456,7 +10457,7 @@
         <v>14</v>
       </c>
       <c r="L164" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M164" t="s">
         <v>10</v>
@@ -10464,13 +10465,13 @@
     </row>
     <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="B165" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="C165" t="s">
-        <v>1008</v>
+        <v>959</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -10479,7 +10480,7 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="G165" t="s">
         <v>10</v>
@@ -10497,7 +10498,7 @@
         <v>14</v>
       </c>
       <c r="L165" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M165" t="s">
         <v>10</v>
@@ -10505,13 +10506,13 @@
     </row>
     <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="B166" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="C166" t="s">
-        <v>1007</v>
+        <v>958</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
@@ -10526,7 +10527,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -10538,7 +10539,7 @@
         <v>14</v>
       </c>
       <c r="L166" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M166" t="s">
         <v>10</v>
@@ -10546,13 +10547,13 @@
     </row>
     <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="B167" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="C167" t="s">
-        <v>1003</v>
+        <v>954</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
@@ -10579,7 +10580,7 @@
         <v>14</v>
       </c>
       <c r="L167" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M167" t="s">
         <v>10</v>
@@ -10587,13 +10588,13 @@
     </row>
     <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="B168" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="C168" t="s">
-        <v>1004</v>
+        <v>955</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
@@ -10602,10 +10603,10 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="G168" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="H168" t="s">
         <v>10</v>
@@ -10620,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="L168" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M168" t="s">
         <v>10</v>
@@ -10628,13 +10629,13 @@
     </row>
     <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="B169" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="C169" t="s">
-        <v>1002</v>
+        <v>953</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
@@ -10661,7 +10662,7 @@
         <v>14</v>
       </c>
       <c r="L169" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M169" t="s">
         <v>10</v>
@@ -10669,13 +10670,13 @@
     </row>
     <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="B170" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="C170" t="s">
-        <v>1001</v>
+        <v>952</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
@@ -10684,10 +10685,10 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="G170" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="H170" t="s">
         <v>10</v>
@@ -10702,7 +10703,7 @@
         <v>14</v>
       </c>
       <c r="L170" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M170" t="s">
         <v>10</v>
@@ -10710,13 +10711,13 @@
     </row>
     <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="B171" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="C171" t="s">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
@@ -10725,7 +10726,7 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="G171" t="s">
         <v>10</v>
@@ -10743,7 +10744,7 @@
         <v>14</v>
       </c>
       <c r="L171" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M171" t="s">
         <v>10</v>
@@ -10751,13 +10752,13 @@
     </row>
     <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="B172" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="C172" t="s">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
@@ -10766,7 +10767,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="G172" t="s">
         <v>62</v>
@@ -10784,7 +10785,7 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M172" t="s">
         <v>10</v>
@@ -10792,13 +10793,13 @@
     </row>
     <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="B173" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="C173" t="s">
-        <v>998</v>
+        <v>949</v>
       </c>
       <c r="D173" t="s">
         <v>10</v>
@@ -10807,10 +10808,10 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="G173" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="H173" t="s">
         <v>10</v>
@@ -10825,7 +10826,7 @@
         <v>14</v>
       </c>
       <c r="L173" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M173" t="s">
         <v>10</v>
@@ -10833,13 +10834,13 @@
     </row>
     <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="B174" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="C174" t="s">
-        <v>997</v>
+        <v>948</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
@@ -10848,7 +10849,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
@@ -10866,7 +10867,7 @@
         <v>14</v>
       </c>
       <c r="L174" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M174" t="s">
         <v>10</v>
@@ -10874,13 +10875,13 @@
     </row>
     <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="B175" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C175" t="s">
-        <v>996</v>
+        <v>947</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -10889,7 +10890,7 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="G175" t="s">
         <v>10</v>
@@ -10907,7 +10908,7 @@
         <v>14</v>
       </c>
       <c r="L175" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M175" t="s">
         <v>10</v>
@@ -10915,13 +10916,13 @@
     </row>
     <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="B176" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C176" t="s">
-        <v>995</v>
+        <v>946</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -10930,7 +10931,7 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="G176" t="s">
         <v>76</v>
@@ -10948,7 +10949,7 @@
         <v>14</v>
       </c>
       <c r="L176" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M176" t="s">
         <v>10</v>
@@ -10956,13 +10957,13 @@
     </row>
     <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="B177" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C177" t="s">
-        <v>994</v>
+        <v>945</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
@@ -10974,7 +10975,7 @@
         <v>62</v>
       </c>
       <c r="G177" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="H177" t="s">
         <v>10</v>
@@ -10989,7 +10990,7 @@
         <v>14</v>
       </c>
       <c r="L177" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M177" t="s">
         <v>10</v>
@@ -10997,13 +10998,13 @@
     </row>
     <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="B178" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C178" t="s">
-        <v>993</v>
+        <v>944</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
@@ -11012,7 +11013,7 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="G178" t="s">
         <v>10</v>
@@ -11030,7 +11031,7 @@
         <v>14</v>
       </c>
       <c r="L178" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M178" t="s">
         <v>10</v>
@@ -11038,13 +11039,13 @@
     </row>
     <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="B179" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C179" t="s">
-        <v>992</v>
+        <v>943</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -11053,7 +11054,7 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="G179" t="s">
         <v>10</v>
@@ -11071,7 +11072,7 @@
         <v>14</v>
       </c>
       <c r="L179" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M179" t="s">
         <v>10</v>
@@ -11079,19 +11080,19 @@
     </row>
     <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>986</v>
+        <v>937</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -11112,7 +11113,7 @@
         <v>14</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M180" t="s">
         <v>10</v>
@@ -11120,13 +11121,13 @@
     </row>
     <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>985</v>
+        <v>936</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -11153,7 +11154,7 @@
         <v>14</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M181" t="s">
         <v>10</v>
@@ -11161,13 +11162,13 @@
     </row>
     <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>987</v>
+        <v>938</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>10</v>
@@ -11194,7 +11195,7 @@
         <v>14</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M182" t="s">
         <v>10</v>
@@ -11202,19 +11203,19 @@
     </row>
     <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>984</v>
+        <v>935</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -11235,7 +11236,7 @@
         <v>14</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M183" t="s">
         <v>10</v>
@@ -11243,13 +11244,13 @@
     </row>
     <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>988</v>
+        <v>939</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -11276,7 +11277,7 @@
         <v>14</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M184" t="s">
         <v>10</v>
@@ -11284,13 +11285,13 @@
     </row>
     <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="B185" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="C185" t="s">
-        <v>1005</v>
+        <v>956</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -11299,7 +11300,7 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="G185" t="s">
         <v>10</v>
@@ -11317,7 +11318,7 @@
         <v>14</v>
       </c>
       <c r="L185" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M185" t="s">
         <v>10</v>
@@ -11325,13 +11326,13 @@
     </row>
     <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="B186" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="C186" t="s">
-        <v>991</v>
+        <v>942</v>
       </c>
       <c r="D186" t="s">
         <v>10</v>
@@ -11340,7 +11341,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="G186" t="s">
         <v>55</v>
@@ -11358,7 +11359,7 @@
         <v>14</v>
       </c>
       <c r="L186" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M186" t="s">
         <v>10</v>
@@ -11366,13 +11367,13 @@
     </row>
     <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="B187" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="C187" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
@@ -11395,11 +11396,11 @@
       <c r="J187" t="s">
         <v>15</v>
       </c>
-      <c r="K187" t="s">
-        <v>14</v>
+      <c r="K187">
+        <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M187" t="s">
         <v>10</v>
@@ -11407,16 +11408,16 @@
     </row>
     <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="C188" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="D188" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -11448,13 +11449,13 @@
     </row>
     <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="B189" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="C189" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="D189" t="s">
         <v>48</v>
@@ -11487,21 +11488,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="B190" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1083</v>
+        <v>1034</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -11528,21 +11529,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="B191" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1084</v>
+        <v>1035</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -11569,15 +11570,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="B192" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1085</v>
+        <v>1036</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
@@ -11610,15 +11611,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="B193" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1086</v>
+        <v>1037</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
@@ -11651,21 +11652,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="B194" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1093</v>
+        <v>1044</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -11692,15 +11693,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="B195" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1092</v>
+        <v>1043</v>
       </c>
       <c r="D195" t="s">
         <v>10</v>
@@ -11733,21 +11734,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="B196" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1094</v>
+        <v>1045</v>
       </c>
       <c r="D196" t="s">
         <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -11774,15 +11775,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1095</v>
+        <v>1046</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
@@ -11815,21 +11816,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="B198" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1096</v>
+        <v>1047</v>
       </c>
       <c r="D198" t="s">
         <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -11858,13 +11859,13 @@
     </row>
     <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="B199" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="C199" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="D199" t="s">
         <v>10</v>
@@ -11899,13 +11900,13 @@
     </row>
     <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="B200" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="C200" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="D200" t="s">
         <v>10</v>
@@ -11914,7 +11915,7 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="G200" t="s">
         <v>10</v>
@@ -11940,13 +11941,13 @@
     </row>
     <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="C201" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
@@ -11955,7 +11956,7 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="G201" t="s">
         <v>10</v>
@@ -11981,13 +11982,13 @@
     </row>
     <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="B202" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -11996,7 +11997,7 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="G202" t="s">
         <v>10</v>
@@ -12022,13 +12023,13 @@
     </row>
     <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="B203" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
       <c r="C203" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -12037,7 +12038,7 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="G203" t="s">
         <v>10</v>
@@ -12063,13 +12064,13 @@
     </row>
     <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="B204" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="C204" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
@@ -12078,7 +12079,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
@@ -12104,13 +12105,13 @@
     </row>
     <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="B205" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="C205" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="D205" t="s">
         <v>10</v>
@@ -12119,7 +12120,7 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="G205" t="s">
         <v>10</v>
@@ -12145,13 +12146,13 @@
     </row>
     <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="B206" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="C206" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
@@ -12186,13 +12187,13 @@
     </row>
     <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="B207" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C207" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
@@ -12227,13 +12228,13 @@
     </row>
     <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="B208" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="C208" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
@@ -12268,13 +12269,13 @@
     </row>
     <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="B209" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="C209" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="D209" t="s">
         <v>10</v>
@@ -12283,7 +12284,7 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="G209" t="s">
         <v>10</v>
@@ -12309,13 +12310,13 @@
     </row>
     <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="B210" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="C210" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="D210" t="s">
         <v>10</v>
@@ -12324,7 +12325,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="G210" t="s">
         <v>10</v>
@@ -12350,13 +12351,13 @@
     </row>
     <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="B211" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="C211" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="D211" t="s">
         <v>10</v>
@@ -12365,7 +12366,7 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="G211" t="s">
         <v>10</v>
@@ -12391,13 +12392,13 @@
     </row>
     <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="B212" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="C212" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="D212" t="s">
         <v>10</v>
@@ -12406,7 +12407,7 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="G212" t="s">
         <v>10</v>
@@ -12432,13 +12433,13 @@
     </row>
     <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="B213" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="C213" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
         <v>10</v>
@@ -12447,7 +12448,7 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="G213" t="s">
         <v>10</v>
@@ -12465,7 +12466,7 @@
         <v>14</v>
       </c>
       <c r="L213" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="M213" t="s">
         <v>10</v>
@@ -12473,13 +12474,13 @@
     </row>
     <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="B214" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="C214" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="D214" t="s">
         <v>10</v>
@@ -12514,13 +12515,13 @@
     </row>
     <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="B215" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="C215" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="D215" t="s">
         <v>10</v>
@@ -12529,7 +12530,7 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="G215" t="s">
         <v>10</v>
@@ -12555,13 +12556,13 @@
     </row>
     <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="B216" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="C216" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="D216" t="s">
         <v>10</v>
@@ -12570,7 +12571,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="G216" t="s">
         <v>10</v>
@@ -12596,13 +12597,13 @@
     </row>
     <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="B217" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="C217" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="D217" t="s">
         <v>10</v>
@@ -12611,7 +12612,7 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="G217" t="s">
         <v>10</v>
@@ -12637,13 +12638,13 @@
     </row>
     <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
       <c r="B218" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="C218" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
@@ -12678,13 +12679,13 @@
     </row>
     <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="B219" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="C219" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
@@ -12693,7 +12694,7 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="G219" t="s">
         <v>10</v>
@@ -12719,13 +12720,13 @@
     </row>
     <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="B220" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="C220" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="D220" t="s">
         <v>10</v>
@@ -12734,7 +12735,7 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="G220" t="s">
         <v>10</v>
@@ -12760,13 +12761,13 @@
     </row>
     <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="B221" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="C221" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="D221" t="s">
         <v>10</v>
@@ -12775,7 +12776,7 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="G221" t="s">
         <v>10</v>
@@ -12801,13 +12802,13 @@
     </row>
     <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B222" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="C222" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="D222" t="s">
         <v>10</v>
@@ -12816,7 +12817,7 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="G222" t="s">
         <v>10</v>
@@ -12842,13 +12843,13 @@
     </row>
     <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="B223" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="C223" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="D223" t="s">
         <v>10</v>
@@ -12857,7 +12858,7 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="G223" t="s">
         <v>10</v>
@@ -12883,13 +12884,13 @@
     </row>
     <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="B224" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="C224" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="D224" t="s">
         <v>10</v>
@@ -12924,13 +12925,13 @@
     </row>
     <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="B225" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="C225" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="D225" t="s">
         <v>10</v>
@@ -12939,7 +12940,7 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="G225" t="s">
         <v>10</v>
@@ -12965,13 +12966,13 @@
     </row>
     <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="B226" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="C226" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="D226" t="s">
         <v>10</v>
@@ -12980,7 +12981,7 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="G226" t="s">
         <v>10</v>
@@ -13006,13 +13007,13 @@
     </row>
     <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="B227" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="C227" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="D227" t="s">
         <v>10</v>
@@ -13021,7 +13022,7 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="G227" t="s">
         <v>10</v>
@@ -13047,13 +13048,13 @@
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="B228" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="C228" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="D228" t="s">
         <v>10</v>
@@ -13062,7 +13063,7 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G228" t="s">
         <v>10</v>
@@ -13088,13 +13089,13 @@
     </row>
     <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="B229" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="C229" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="D229" t="s">
         <v>10</v>
@@ -13129,13 +13130,13 @@
     </row>
     <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B230" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="C230" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
@@ -13170,13 +13171,13 @@
     </row>
     <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="B231" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="C231" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="D231" t="s">
         <v>10</v>
@@ -13211,13 +13212,13 @@
     </row>
     <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="B232" t="s">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="C232" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="D232" t="s">
         <v>10</v>
@@ -13226,7 +13227,7 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="G232" t="s">
         <v>10</v>
@@ -13252,13 +13253,13 @@
     </row>
     <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="B233" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="C233" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="D233" t="s">
         <v>10</v>
@@ -13267,7 +13268,7 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="G233" t="s">
         <v>10</v>
@@ -13293,13 +13294,13 @@
     </row>
     <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="B234" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C234" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="D234" t="s">
         <v>10</v>
@@ -13308,7 +13309,7 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G234" t="s">
         <v>10</v>
@@ -13334,13 +13335,13 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="B235" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
       <c r="C235" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="D235" t="s">
         <v>10</v>
@@ -13349,7 +13350,7 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="G235" t="s">
         <v>10</v>
@@ -13375,13 +13376,13 @@
     </row>
     <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
       <c r="B236" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="C236" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="D236" t="s">
         <v>10</v>
@@ -13390,7 +13391,7 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="G236" t="s">
         <v>10</v>
@@ -13416,13 +13417,13 @@
     </row>
     <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="B237" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="C237" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="D237" t="s">
         <v>10</v>
@@ -13431,7 +13432,7 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="G237" t="s">
         <v>10</v>
@@ -13457,13 +13458,13 @@
     </row>
     <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="B238" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="C238" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
@@ -13498,13 +13499,13 @@
     </row>
     <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="B239" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="C239" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="D239" t="s">
         <v>10</v>
@@ -13513,7 +13514,7 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="G239" t="s">
         <v>10</v>
@@ -13539,13 +13540,13 @@
     </row>
     <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="B240" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="C240" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="D240" t="s">
         <v>10</v>
@@ -13554,7 +13555,7 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="G240" t="s">
         <v>10</v>
@@ -13580,13 +13581,13 @@
     </row>
     <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="B241" t="s">
-        <v>784</v>
+        <v>744</v>
       </c>
       <c r="C241" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
       <c r="D241" t="s">
         <v>10</v>
@@ -13595,7 +13596,7 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
       <c r="G241" t="s">
         <v>10</v>
@@ -13621,13 +13622,13 @@
     </row>
     <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="B242" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="C242" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="D242" t="s">
         <v>10</v>
@@ -13662,13 +13663,13 @@
     </row>
     <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="B243" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
       <c r="C243" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="D243" t="s">
         <v>10</v>
@@ -13703,13 +13704,13 @@
     </row>
     <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
       <c r="B244" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="C244" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="D244" t="s">
         <v>10</v>
@@ -13718,7 +13719,7 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="G244" t="s">
         <v>10</v>
@@ -13744,13 +13745,13 @@
     </row>
     <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="B245" t="s">
-        <v>797</v>
+        <v>757</v>
       </c>
       <c r="C245" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="D245" t="s">
         <v>10</v>
@@ -13759,7 +13760,7 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
       <c r="G245" t="s">
         <v>10</v>
@@ -13785,13 +13786,13 @@
     </row>
     <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="B246" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="C246" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="D246" t="s">
         <v>10</v>
@@ -13800,7 +13801,7 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="G246" t="s">
         <v>10</v>
@@ -13826,13 +13827,13 @@
     </row>
     <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
       <c r="B247" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="C247" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="D247" t="s">
         <v>10</v>
@@ -13841,7 +13842,7 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="G247" t="s">
         <v>10</v>
@@ -13867,13 +13868,13 @@
     </row>
     <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="B248" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
       <c r="C248" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="D248" t="s">
         <v>10</v>
@@ -13882,7 +13883,7 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="G248" t="s">
         <v>10</v>
@@ -13908,13 +13909,13 @@
     </row>
     <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="B249" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="C249" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="D249" t="s">
         <v>10</v>
@@ -13923,7 +13924,7 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="G249" t="s">
         <v>10</v>
@@ -13949,13 +13950,13 @@
     </row>
     <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="B250" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="C250" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="D250" t="s">
         <v>10</v>
@@ -13990,13 +13991,13 @@
     </row>
     <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="B251" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C251" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="D251" t="s">
         <v>10</v>
@@ -14031,13 +14032,13 @@
     </row>
     <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="B252" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="C252" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="D252" t="s">
         <v>10</v>
@@ -14072,13 +14073,13 @@
     </row>
     <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="B253" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="C253" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="D253" t="s">
         <v>10</v>
@@ -14113,13 +14114,13 @@
     </row>
     <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
       <c r="B254" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="C254" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="D254" t="s">
         <v>10</v>
@@ -14154,13 +14155,13 @@
     </row>
     <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="B255" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="C255" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="D255" t="s">
         <v>10</v>
@@ -14195,13 +14196,13 @@
     </row>
     <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="B256" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="C256" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
       <c r="D256" t="s">
         <v>10</v>
@@ -14210,7 +14211,7 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="G256" t="s">
         <v>10</v>
@@ -14236,13 +14237,13 @@
     </row>
     <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="B257" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="C257" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="D257" t="s">
         <v>10</v>
@@ -14251,7 +14252,7 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="G257" t="s">
         <v>10</v>
@@ -14277,19 +14278,19 @@
     </row>
     <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
       <c r="C258" t="s">
-        <v>1066</v>
+        <v>1017</v>
       </c>
       <c r="D258" t="s">
         <v>10</v>
       </c>
       <c r="E258" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -14318,19 +14319,19 @@
     </row>
     <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="C259" t="s">
-        <v>1065</v>
+        <v>1016</v>
       </c>
       <c r="D259" t="s">
         <v>10</v>
       </c>
       <c r="E259" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -14359,13 +14360,13 @@
     </row>
     <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="C260" t="s">
-        <v>1059</v>
+        <v>1010</v>
       </c>
       <c r="D260" t="s">
         <v>10</v>
@@ -14400,19 +14401,19 @@
     </row>
     <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="B261" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="C261" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
       <c r="D261" t="s">
         <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -14424,7 +14425,7 @@
         <v>10</v>
       </c>
       <c r="I261" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="J261" t="s">
         <v>15</v>
@@ -14441,13 +14442,13 @@
     </row>
     <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="B262" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="C262" t="s">
-        <v>1031</v>
+        <v>982</v>
       </c>
       <c r="D262" t="s">
         <v>10</v>
@@ -14459,7 +14460,7 @@
         <v>10</v>
       </c>
       <c r="G262" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="H262" t="s">
         <v>10</v>
@@ -14482,13 +14483,13 @@
     </row>
     <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="B263" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="C263" t="s">
-        <v>1030</v>
+        <v>981</v>
       </c>
       <c r="D263" t="s">
         <v>10</v>
@@ -14523,13 +14524,13 @@
     </row>
     <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="B264" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="C264" t="s">
-        <v>1015</v>
+        <v>966</v>
       </c>
       <c r="D264" t="s">
         <v>10</v>
@@ -14564,19 +14565,19 @@
     </row>
     <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="B265" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
       </c>
       <c r="E265" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -14605,19 +14606,19 @@
     </row>
     <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="B266" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="C266" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="D266" t="s">
         <v>10</v>
       </c>
       <c r="E266" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -14646,19 +14647,19 @@
     </row>
     <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="B267" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="C267" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
       <c r="D267" t="s">
         <v>10</v>
       </c>
       <c r="E267" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -14687,19 +14688,19 @@
     </row>
     <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="B268" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="C268" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="D268" t="s">
         <v>10</v>
       </c>
       <c r="E268" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -14728,19 +14729,19 @@
     </row>
     <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="B269" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="C269" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="D269" t="s">
         <v>10</v>
       </c>
       <c r="E269" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -14769,19 +14770,19 @@
     </row>
     <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="B270" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="C270" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
       <c r="D270" t="s">
         <v>10</v>
       </c>
       <c r="E270" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -14810,19 +14811,19 @@
     </row>
     <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="B271" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="C271" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="D271" t="s">
         <v>10</v>
       </c>
       <c r="E271" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -14851,19 +14852,19 @@
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="B272" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="C272" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="D272" t="s">
         <v>10</v>
       </c>
       <c r="E272" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -14892,19 +14893,19 @@
     </row>
     <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="B273" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="C273" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D273" t="s">
         <v>10</v>
       </c>
       <c r="E273" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -14933,19 +14934,19 @@
     </row>
     <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B274" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="C274" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="D274" t="s">
         <v>10</v>
       </c>
       <c r="E274" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -14974,13 +14975,13 @@
     </row>
     <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="B275" t="s">
-        <v>894</v>
+        <v>854</v>
       </c>
       <c r="C275" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="D275" t="s">
         <v>10</v>
@@ -15018,16 +15019,16 @@
         <v>36</v>
       </c>
       <c r="B276" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="C276" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
       <c r="D276" t="s">
         <v>10</v>
       </c>
       <c r="E276" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -15056,19 +15057,19 @@
     </row>
     <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
       <c r="B277" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="C277" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="D277" t="s">
         <v>10</v>
       </c>
       <c r="E277" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -15097,13 +15098,13 @@
     </row>
     <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="B278" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="C278" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="D278" t="s">
         <v>10</v>
@@ -15138,13 +15139,13 @@
     </row>
     <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>906</v>
+        <v>866</v>
       </c>
       <c r="B279" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="C279" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="D279" t="s">
         <v>10</v>
@@ -15179,19 +15180,19 @@
     </row>
     <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
       <c r="B280" t="s">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="C280" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="D280" t="s">
         <v>10</v>
       </c>
       <c r="E280" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -15220,13 +15221,13 @@
     </row>
     <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="B281" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="C281" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="D281" t="s">
         <v>10</v>
@@ -15261,13 +15262,13 @@
     </row>
     <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
       <c r="B282" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="C282" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
       <c r="D282" t="s">
         <v>10</v>
@@ -15302,19 +15303,19 @@
     </row>
     <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>919</v>
+        <v>879</v>
       </c>
       <c r="B283" t="s">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="C283" t="s">
-        <v>922</v>
+        <v>882</v>
       </c>
       <c r="D283" t="s">
         <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -15343,19 +15344,19 @@
     </row>
     <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="B284" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="C284" t="s">
-        <v>926</v>
+        <v>886</v>
       </c>
       <c r="D284" t="s">
         <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -15384,19 +15385,19 @@
     </row>
     <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="B285" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="C285" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="D285" t="s">
         <v>10</v>
       </c>
       <c r="E285" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -15425,19 +15426,19 @@
     </row>
     <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="B286" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="C286" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="D286" t="s">
         <v>10</v>
       </c>
       <c r="E286" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -15466,19 +15467,19 @@
     </row>
     <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="B287" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="C287" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="D287" t="s">
         <v>10</v>
       </c>
       <c r="E287" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -15507,13 +15508,13 @@
     </row>
     <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="B288" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="C288" t="s">
-        <v>939</v>
+        <v>899</v>
       </c>
       <c r="D288" t="s">
         <v>10</v>
@@ -15548,19 +15549,19 @@
     </row>
     <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="B289" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="C289" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="D289" t="s">
         <v>10</v>
       </c>
       <c r="E289" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="F289" t="s">
         <v>10</v>
@@ -15589,13 +15590,13 @@
     </row>
     <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="B290" t="s">
-        <v>944</v>
-      </c>
-      <c r="C290" t="s">
-        <v>945</v>
+        <v>904</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1053</v>
       </c>
       <c r="D290" t="s">
         <v>10</v>
@@ -15604,7 +15605,7 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="G290" t="s">
         <v>10</v>
@@ -15622,7 +15623,7 @@
         <v>14</v>
       </c>
       <c r="L290" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M290" t="s">
         <v>10</v>
@@ -15630,13 +15631,13 @@
     </row>
     <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>946</v>
+        <v>905</v>
       </c>
       <c r="B291" t="s">
-        <v>947</v>
-      </c>
-      <c r="C291" t="s">
-        <v>948</v>
+        <v>906</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1054</v>
       </c>
       <c r="D291" t="s">
         <v>10</v>
@@ -15645,7 +15646,7 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="G291" t="s">
         <v>10</v>
@@ -15663,7 +15664,7 @@
         <v>14</v>
       </c>
       <c r="L291" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M291" t="s">
         <v>10</v>
@@ -15671,13 +15672,13 @@
     </row>
     <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>949</v>
+        <v>907</v>
       </c>
       <c r="B292" t="s">
-        <v>950</v>
-      </c>
-      <c r="C292" t="s">
-        <v>951</v>
+        <v>908</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1078</v>
       </c>
       <c r="D292" t="s">
         <v>10</v>
@@ -15704,7 +15705,7 @@
         <v>14</v>
       </c>
       <c r="L292" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M292" t="s">
         <v>10</v>
@@ -15712,13 +15713,13 @@
     </row>
     <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>952</v>
+        <v>909</v>
       </c>
       <c r="B293" t="s">
-        <v>953</v>
-      </c>
-      <c r="C293" t="s">
-        <v>954</v>
+        <v>910</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="D293" t="s">
         <v>10</v>
@@ -15745,7 +15746,7 @@
         <v>14</v>
       </c>
       <c r="L293" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M293" t="s">
         <v>10</v>
@@ -15753,13 +15754,13 @@
     </row>
     <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>955</v>
+        <v>912</v>
       </c>
       <c r="B294" t="s">
-        <v>956</v>
-      </c>
-      <c r="C294" t="s">
-        <v>957</v>
+        <v>913</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="D294" t="s">
         <v>10</v>
@@ -15771,7 +15772,7 @@
         <v>10</v>
       </c>
       <c r="G294" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H294" t="s">
         <v>10</v>
@@ -15786,7 +15787,7 @@
         <v>14</v>
       </c>
       <c r="L294" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M294" t="s">
         <v>10</v>
@@ -15794,13 +15795,13 @@
     </row>
     <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="B295" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="C295" t="s">
-        <v>959</v>
+        <v>915</v>
       </c>
       <c r="D295" t="s">
         <v>10</v>
@@ -15827,7 +15828,7 @@
         <v>14</v>
       </c>
       <c r="L295" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M295" t="s">
         <v>10</v>
@@ -15835,13 +15836,13 @@
     </row>
     <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>960</v>
+        <v>916</v>
       </c>
       <c r="B296" t="s">
-        <v>961</v>
-      </c>
-      <c r="C296" t="s">
-        <v>962</v>
+        <v>917</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1080</v>
       </c>
       <c r="D296" t="s">
         <v>10</v>
@@ -15868,21 +15869,21 @@
         <v>14</v>
       </c>
       <c r="L296" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="M296" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="B297" t="s">
-        <v>963</v>
+        <v>918</v>
       </c>
       <c r="C297" t="s">
-        <v>964</v>
+        <v>1094</v>
       </c>
       <c r="D297" t="s">
         <v>10</v>
@@ -15909,21 +15910,21 @@
         <v>14</v>
       </c>
       <c r="L297" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="M297" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>965</v>
+        <v>919</v>
       </c>
       <c r="B298" t="s">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="C298" t="s">
-        <v>967</v>
+        <v>1095</v>
       </c>
       <c r="D298" t="s">
         <v>10</v>
@@ -15950,21 +15951,21 @@
         <v>14</v>
       </c>
       <c r="L298" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="M298" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>968</v>
+        <v>921</v>
       </c>
       <c r="B299" t="s">
-        <v>969</v>
+        <v>922</v>
       </c>
       <c r="C299" t="s">
-        <v>970</v>
+        <v>1096</v>
       </c>
       <c r="D299" t="s">
         <v>10</v>
@@ -15991,21 +15992,21 @@
         <v>14</v>
       </c>
       <c r="L299" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="M299" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>971</v>
+        <v>923</v>
       </c>
       <c r="B300" t="s">
-        <v>972</v>
+        <v>924</v>
       </c>
       <c r="C300" t="s">
-        <v>973</v>
+        <v>1097</v>
       </c>
       <c r="D300" t="s">
         <v>10</v>
@@ -16032,7 +16033,7 @@
         <v>14</v>
       </c>
       <c r="L300" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="M300" t="s">
         <v>10</v>
@@ -16040,13 +16041,13 @@
     </row>
     <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>974</v>
+        <v>925</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>975</v>
+        <v>926</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>989</v>
+        <v>940</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>10</v>
@@ -16073,7 +16074,7 @@
         <v>14</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M301" t="s">
         <v>10</v>
@@ -16081,13 +16082,13 @@
     </row>
     <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>976</v>
+        <v>927</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>977</v>
+        <v>928</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>990</v>
+        <v>941</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>10</v>
@@ -16114,7 +16115,7 @@
         <v>14</v>
       </c>
       <c r="L302" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M302" t="s">
         <v>10</v>
@@ -16122,19 +16123,19 @@
     </row>
     <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>978</v>
+        <v>929</v>
       </c>
       <c r="B303" t="s">
-        <v>979</v>
+        <v>930</v>
       </c>
       <c r="C303" t="s">
-        <v>981</v>
+        <v>932</v>
       </c>
       <c r="D303" t="s">
         <v>10</v>
       </c>
       <c r="E303" t="s">
-        <v>980</v>
+        <v>931</v>
       </c>
       <c r="F303" t="s">
         <v>10</v>
@@ -16206,7 +16207,7 @@
   <autoFilter ref="A1:M304">
     <filterColumn colId="11">
       <filters>
-        <filter val="Разъемы"/>
+        <filter val="Противогазы"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2020-12-24-product-4a5d33c2-d671-f780-a9d0-884fb46b319b.xlsx
+++ b/2020-12-24-product-4a5d33c2-d671-f780-a9d0-884fb46b319b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\verstka\Priemka24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\openserver\domains\Priemka24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3723,12 +3723,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet 1" filterMode="1"/>
+  <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>193</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>199</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>208</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>218</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>227</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>233</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>236</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>239</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>241</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>244</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>252</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>257</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>259</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>263</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>268</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>271</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>273</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>276</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>279</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>281</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>284</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>292</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>294</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>296</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>298</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>300</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>302</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>305</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>308</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>311</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>314</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>319</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>323</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>327</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>330</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>334</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>338</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>342</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>345</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>348</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>351</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>354</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>356</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>360</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>364</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>366</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>369</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>371</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>373</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>375</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>378</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>380</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>383</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>385</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>388</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>390</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>392</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>394</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>396</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>399</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>402</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>404</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>407</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>410</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>412</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>415</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>418</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>421</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>425</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>431</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>435</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>438</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>447</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>450</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>452</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>454</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>457</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>460</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>465</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>467</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>469</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>472</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>474</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>476</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>479</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>482</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>487</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>491</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>494</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>496</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>499</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>502</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>505</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>508</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>514</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>523</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>526</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>529</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>532</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>534</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>537</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>539</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>542</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>545</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>549</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>551</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>553</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>555</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>557</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>559</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>562</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>565</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>569</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>574</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>580</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>584</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>587</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>589</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>592</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>595</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>599</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>603</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>607</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>610</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>614</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>617</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>620</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>623</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>626</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>630</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>634</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>638</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>642</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>647</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>650</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>654</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>658</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>662</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>665</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>669</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>673</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>677</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>680</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>683</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>686</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>690</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>694</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>698</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>701</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>704</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>707</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>710</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>714</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>718</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>722</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>725</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>728</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>732</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>735</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>739</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>743</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>747</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>750</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>753</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>756</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>760</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>764</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>768</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>772</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>776</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>779</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>782</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>785</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>788</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>791</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>794</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>798</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>801</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>803</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>806</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>808</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>812</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>814</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>816</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>818</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>822</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>826</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>830</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>833</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>836</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>840</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>843</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>846</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>498</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>853</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>36</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>859</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>863</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>866</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>869</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>873</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>876</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>879</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>883</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>567</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>889</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>893</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>897</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>900</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>903</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>905</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>907</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>909</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>912</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>504</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>916</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>925</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>927</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>929</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -16204,13 +16204,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M304">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Противогазы"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M304"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" copies="3" r:id="rId1"/>
 </worksheet>
